--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165836.17796405</v>
+        <v>1164415.688976002</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523437</v>
+        <v>17657175.71523436</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825534</v>
+        <v>230361.9932825532</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>212.5976554432175</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8401470690381005</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -825,10 +825,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.170037318360421</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.2017488798277</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>61.19270735832331</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>326.6762468630548</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.01310277420615</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>143.2058576132947</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>77.87073574979136</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>286.2721000371766</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>115.042627438896</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.99068116930834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8176194334636</v>
+        <v>284.8176194334632</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
         <v>85.90132644576698</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.56410959728</v>
+        <v>25.85765378335559</v>
       </c>
       <c r="T13" t="n">
         <v>243.1546752508501</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>224.8134312383411</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2450776617484</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H14" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>19.2407722522408</v>
       </c>
       <c r="T16" t="n">
         <v>243.1546752508501</v>
       </c>
       <c r="U16" t="n">
-        <v>180.8435363787062</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.65301062268223</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368476</v>
@@ -2019,7 +2019,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T19" t="n">
         <v>243.1546752508501</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>9.504250209267706</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T20" t="n">
         <v>217.2590655368476</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>94.04355676002196</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2292,7 +2292,7 @@
         <v>156.56410959728</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U22" t="n">
         <v>275.645275292109</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>76.03435548820481</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948847</v>
       </c>
       <c r="G23" t="n">
         <v>397.2450776617479</v>
@@ -2481,13 +2481,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.8731123569568</v>
@@ -2526,13 +2526,13 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
-        <v>11.55688020270627</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T25" t="n">
         <v>243.1546752508501</v>
       </c>
       <c r="U25" t="n">
-        <v>275.645275292109</v>
+        <v>119.9172752701662</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2721,13 +2721,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>91.66334747527078</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8731123569568</v>
+        <v>113.2320398340927</v>
       </c>
       <c r="H28" t="n">
         <v>137.9496946538981</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
         <v>156.56410959728</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2802567953226782</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2802567953226782</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>85.90132644576698</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T34" t="n">
         <v>243.1546752508501</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>120.1950218787433</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>78.84379170509102</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T37" t="n">
-        <v>243.1546752508501</v>
+        <v>217.257400327427</v>
       </c>
       <c r="U37" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773004</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>67.77692056418643</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>251.1817344879908</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3796,7 +3796,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>59.1939767178762</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
-        <v>98.17623463259829</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U43" t="n">
         <v>275.645275292109</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695676</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884101</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.2450776617479</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.2957194361867</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4155,7 +4155,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576698</v>
+        <v>41.59938884544064</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
         <v>156.56410959728</v>
@@ -4191,7 +4191,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U46" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.653802879758</v>
+        <v>442.6066390714051</v>
       </c>
       <c r="C2" t="n">
-        <v>996.551734103585</v>
+        <v>408.5045702952325</v>
       </c>
       <c r="D2" t="n">
-        <v>567.9700598408533</v>
+        <v>376.6351895100811</v>
       </c>
       <c r="E2" t="n">
-        <v>538.2357190395526</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1696.334796677349</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>1277.192333256659</v>
       </c>
       <c r="Y2" t="n">
-        <v>1456.953373364666</v>
+        <v>868.9062095563129</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.0904269551045</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>376.5287154383295</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4494,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1696.001574203286</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1536.760205501282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1536.760205501282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1258.327204754388</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1258.327204754388</v>
+        <v>1478.797825151298</v>
       </c>
       <c r="W4" t="n">
-        <v>986.3008003406792</v>
+        <v>1206.77142073759</v>
       </c>
       <c r="X4" t="n">
-        <v>740.9090456740917</v>
+        <v>961.3796660710025</v>
       </c>
       <c r="Y4" t="n">
-        <v>740.9090456740917</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.133553298582</v>
+        <v>587.458323283332</v>
       </c>
       <c r="C5" t="n">
-        <v>1207.031484522409</v>
+        <v>553.3562545071593</v>
       </c>
       <c r="D5" t="n">
-        <v>778.4498102596771</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E5" t="n">
-        <v>748.7154694583763</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,22 +4570,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="N5" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="O5" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P5" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.555549331876</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W5" t="n">
-        <v>1282.740498783313</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.638439403028</v>
+        <v>1018.003613428182</v>
       </c>
       <c r="Y5" t="n">
-        <v>1263.392719743085</v>
+        <v>609.7174897278358</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4652,19 +4652,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.9125995673351</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="C7" t="n">
-        <v>673.9125995673351</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D7" t="n">
-        <v>508.0346067688578</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E7" t="n">
-        <v>338.276603019595</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F7" t="n">
-        <v>338.276603019595</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G7" t="n">
         <v>262.5057921365585</v>
@@ -4728,13 +4728,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4758,19 +4758,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1552.531048652847</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1265.575540523277</v>
       </c>
       <c r="W7" t="n">
-        <v>1146.724024919814</v>
+        <v>1265.575540523277</v>
       </c>
       <c r="X7" t="n">
-        <v>901.3322702532269</v>
+        <v>1020.18378585669</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.9125995673351</v>
+        <v>792.764115170798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C8" t="n">
         <v>119.3744157384487</v>
@@ -4810,13 +4810,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1398.458894115283</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1398.458894115283</v>
+        <v>1408.019692669128</v>
       </c>
       <c r="W8" t="n">
-        <v>993.603439526316</v>
+        <v>1003.164238080161</v>
       </c>
       <c r="X8" t="n">
-        <v>978.5013801460308</v>
+        <v>584.0217746594717</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>579.7760549995292</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
         <v>739.9048540962709</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>711.8779941617646</v>
+        <v>632.348846104353</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>89.90148899448771</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.859906705043</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V10" t="n">
-        <v>983.9043985754731</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W10" t="n">
-        <v>711.8779941617646</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X10" t="n">
-        <v>711.8779941617646</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8779941617646</v>
+        <v>632.348846104353</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776308</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5044,10 +5044,10 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K11" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L11" t="n">
-        <v>1310.911721843587</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M11" t="n">
         <v>2492.083625762057</v>
@@ -5077,16 +5077,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W11" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533116</v>
       </c>
       <c r="J12" t="n">
-        <v>462.2401065289864</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K12" t="n">
-        <v>474.1101772889937</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L12" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N12" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P12" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.8160132079688</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="C13" t="n">
-        <v>701.2543016911937</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3763088927165</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E13" t="n">
-        <v>365.6183051434538</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F13" t="n">
-        <v>188.91125110521</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G13" t="n">
-        <v>188.91125110521</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H13" t="n">
         <v>188.91125110521</v>
@@ -5223,28 +5223,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2603.160843218045</v>
+        <v>2753.778134622922</v>
       </c>
       <c r="T13" t="n">
-        <v>2357.550060136378</v>
+        <v>2508.167351541255</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2229.737780539125</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004679</v>
+        <v>1942.782272409555</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.13857659097</v>
+        <v>1670.755867995847</v>
       </c>
       <c r="X13" t="n">
-        <v>1293.054302612848</v>
+        <v>1425.364113329259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1065.634631926956</v>
+        <v>1197.944442643368</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>791.0944537814166</v>
       </c>
       <c r="G14" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H14" t="n">
         <v>102.1422344933241</v>
@@ -5278,16 +5278,16 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K14" t="n">
-        <v>571.4218927017964</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L14" t="n">
-        <v>593.1026938386694</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.35264232561</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N14" t="n">
         <v>2516.598047122608</v>
@@ -5354,25 +5354,25 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I15" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>726.8077124858684</v>
+        <v>1154.843697359371</v>
       </c>
       <c r="L15" t="n">
-        <v>742.7684874804132</v>
+        <v>1562.491653959612</v>
       </c>
       <c r="M15" t="n">
-        <v>761.3939590779258</v>
+        <v>1581.117125557124</v>
       </c>
       <c r="N15" t="n">
-        <v>780.5123914868041</v>
+        <v>1600.235557966002</v>
       </c>
       <c r="O15" t="n">
-        <v>798.0020220519808</v>
+        <v>1617.725188531179</v>
       </c>
       <c r="P15" t="n">
         <v>1631.762158972801</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1178.687535441156</v>
+        <v>1012.809542642678</v>
       </c>
       <c r="C16" t="n">
-        <v>1006.125823924381</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="D16" t="n">
         <v>840.2478311259033</v>
@@ -5460,28 +5460,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2603.160843218045</v>
+        <v>2760.461853341219</v>
       </c>
       <c r="T16" t="n">
-        <v>2357.550060136378</v>
+        <v>2514.851070259553</v>
       </c>
       <c r="U16" t="n">
-        <v>2174.879821370008</v>
+        <v>2236.421499257423</v>
       </c>
       <c r="V16" t="n">
-        <v>1887.924313240439</v>
+        <v>1949.465991127853</v>
       </c>
       <c r="W16" t="n">
-        <v>1615.89790882673</v>
+        <v>1677.439586714145</v>
       </c>
       <c r="X16" t="n">
-        <v>1370.506154160143</v>
+        <v>1432.047832047557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.506154160143</v>
+        <v>1204.628161361665</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>553.9456687731839</v>
+        <v>519.3922737776151</v>
       </c>
       <c r="K17" t="n">
-        <v>571.4218927017964</v>
+        <v>1371.218789664405</v>
       </c>
       <c r="L17" t="n">
-        <v>1165.360404977446</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M17" t="n">
-        <v>2346.532308895916</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N17" t="n">
-        <v>3496.777713692914</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O17" t="n">
         <v>3519.925986636534</v>
@@ -5609,7 +5609,7 @@
         <v>527.8148562899294</v>
       </c>
       <c r="O18" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P18" t="n">
         <v>1091.023220340725</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.5753929162413</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C19" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D19" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E19" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F19" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H19" t="n">
         <v>102.1422344933241</v>
@@ -5700,25 +5700,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.616920533116</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.187349530986</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.231841401416</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.205436987708</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.81368232112</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.394011635228</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C20" t="n">
         <v>2088.646413039469</v>
@@ -5752,28 +5752,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>1232.907972638611</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M20" t="n">
-        <v>2414.079876557081</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N20" t="n">
-        <v>3564.325281354079</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O20" t="n">
-        <v>4517.389926222987</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P20" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q20" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R20" t="n">
         <v>5107.111724666206</v>
@@ -5797,7 +5797,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>1128.780024198913</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>1144.740799193458</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>1163.366270790971</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N21" t="n">
-        <v>1182.484703199849</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>1199.974333765026</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1214.011304206648</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
         <v>1641.145501977371</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1101.11931560117</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="C22" t="n">
         <v>1006.125823924381</v>
@@ -5940,22 +5940,22 @@
         <v>2603.160843218045</v>
       </c>
       <c r="T22" t="n">
-        <v>2603.160843218045</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U22" t="n">
-        <v>2324.731272215915</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V22" t="n">
-        <v>2037.775764086345</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W22" t="n">
-        <v>1765.749359672637</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X22" t="n">
-        <v>1520.357605006049</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1292.937934320158</v>
+        <v>1197.944442643368</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F23" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G23" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H23" t="n">
         <v>102.1422344933241</v>
@@ -5989,28 +5989,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>1729.143463952188</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M23" t="n">
-        <v>2910.315367870658</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N23" t="n">
-        <v>4060.560772667655</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O23" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P23" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q23" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R23" t="n">
         <v>5107.111724666206</v>
@@ -6025,16 +6025,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W23" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X23" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>1005.791940332991</v>
+        <v>1154.843697359371</v>
       </c>
       <c r="L24" t="n">
-        <v>1021.752715327536</v>
+        <v>1170.804472353916</v>
       </c>
       <c r="M24" t="n">
-        <v>1040.378186925048</v>
+        <v>1189.429943951428</v>
       </c>
       <c r="N24" t="n">
-        <v>1059.496619333927</v>
+        <v>1208.548376360307</v>
       </c>
       <c r="O24" t="n">
-        <v>1076.986249899104</v>
+        <v>1226.038006925483</v>
       </c>
       <c r="P24" t="n">
-        <v>1091.023220340725</v>
+        <v>1240.074977367105</v>
       </c>
       <c r="Q24" t="n">
         <v>1641.145501977371</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1001.980481402912</v>
+        <v>1012.809542642678</v>
       </c>
       <c r="C25" t="n">
-        <v>829.4187698861368</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="D25" t="n">
-        <v>663.5407770876595</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E25" t="n">
-        <v>493.7827733383967</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F25" t="n">
         <v>493.7827733383967</v>
@@ -6174,25 +6174,25 @@
         <v>2761.306408467823</v>
       </c>
       <c r="S25" t="n">
-        <v>2749.632792101453</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T25" t="n">
-        <v>2504.022009019786</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U25" t="n">
-        <v>2225.592438017656</v>
+        <v>2236.421499257423</v>
       </c>
       <c r="V25" t="n">
-        <v>1938.636929888087</v>
+        <v>1949.465991127853</v>
       </c>
       <c r="W25" t="n">
-        <v>1666.610525474378</v>
+        <v>1677.439586714145</v>
       </c>
       <c r="X25" t="n">
-        <v>1421.218770807791</v>
+        <v>1432.047832047557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1193.799100121899</v>
+        <v>1204.628161361665</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G26" t="n">
         <v>389.8367995776304</v>
@@ -6229,49 +6229,49 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>1729.143463952188</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M26" t="n">
-        <v>2910.315367870658</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N26" t="n">
-        <v>4060.560772667655</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O26" t="n">
-        <v>5063.888712181582</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P26" t="n">
-        <v>5083.64522758474</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q26" t="n">
-        <v>5098.481547872238</v>
+        <v>4963.880878114751</v>
       </c>
       <c r="R26" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S26" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T26" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W26" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X26" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y26" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="27">
@@ -6284,28 +6284,28 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D27" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F27" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G27" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H27" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J27" t="n">
-        <v>462.2401065289864</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K27" t="n">
         <v>1005.791940332991</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1101.518771565904</v>
+        <v>1127.534936933212</v>
       </c>
       <c r="C28" t="n">
-        <v>928.9570600491287</v>
+        <v>954.973225416437</v>
       </c>
       <c r="D28" t="n">
-        <v>763.0790672506514</v>
+        <v>789.0952326179597</v>
       </c>
       <c r="E28" t="n">
-        <v>670.4898273766405</v>
+        <v>619.3372288686969</v>
       </c>
       <c r="F28" t="n">
-        <v>493.7827733383967</v>
+        <v>442.6301748304531</v>
       </c>
       <c r="G28" t="n">
-        <v>328.2543770182384</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H28" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I28" t="n">
         <v>102.1422344933241</v>
@@ -6408,28 +6408,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R28" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S28" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T28" t="n">
-        <v>2376.140628496887</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U28" t="n">
-        <v>2097.711057494756</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V28" t="n">
-        <v>1810.755549365187</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W28" t="n">
-        <v>1538.729144951478</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="X28" t="n">
-        <v>1293.337390284891</v>
+        <v>1546.773226338091</v>
       </c>
       <c r="Y28" t="n">
-        <v>1293.337390284891</v>
+        <v>1319.353555652199</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G29" t="n">
         <v>389.8367995776307</v>
@@ -6463,28 +6463,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J29" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>1729.143463952188</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M29" t="n">
-        <v>2910.315367870658</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N29" t="n">
-        <v>4060.560772667655</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R29" t="n">
         <v>5107.111724666206</v>
@@ -6499,16 +6499,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W29" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>104.6731320533116</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6181084023166</v>
+        <v>436.1764333685289</v>
       </c>
       <c r="K30" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L30" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M30" t="n">
-        <v>158.0744257543813</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N30" t="n">
-        <v>177.1928581632595</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>915.1748001463208</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6612,7 +6612,7 @@
         <v>189.1943387772531</v>
       </c>
       <c r="G31" t="n">
-        <v>189.1943387772531</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H31" t="n">
         <v>188.91125110521</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814174</v>
       </c>
       <c r="G32" t="n">
         <v>389.8367995776304</v>
@@ -6700,34 +6700,34 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>2067.258264596789</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M32" t="n">
-        <v>3248.430168515259</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N32" t="n">
-        <v>3272.94458987581</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O32" t="n">
-        <v>4276.272529389737</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P32" t="n">
-        <v>4537.146441626144</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S32" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T32" t="n">
         <v>4807.200536626277</v>
@@ -6736,16 +6736,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>186.0687738537928</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L33" t="n">
-        <v>202.0295488483377</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M33" t="n">
-        <v>220.6550204458503</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N33" t="n">
-        <v>239.7734528547285</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O33" t="n">
-        <v>257.2630834199053</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P33" t="n">
         <v>1091.023220340725</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.5753929162413</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="C34" t="n">
-        <v>780.0136813994662</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D34" t="n">
-        <v>614.1356886009889</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E34" t="n">
-        <v>444.3776848517263</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F34" t="n">
-        <v>267.6706308134825</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1422344933241</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H34" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6882,28 +6882,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R34" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.227703614783</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.616920533116</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.187349530986</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.231841401416</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.205436987708</v>
+        <v>1670.755867995847</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.81368232112</v>
+        <v>1425.364113329259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.394011635228</v>
+        <v>1197.944442643368</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1218.96188337221</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814174</v>
       </c>
       <c r="G35" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H35" t="n">
         <v>102.1422344933241</v>
@@ -6937,34 +6937,34 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>900.8335891187915</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M35" t="n">
-        <v>2082.005493037262</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N35" t="n">
-        <v>3232.250897834259</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O35" t="n">
-        <v>4235.578837348186</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P35" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q35" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R35" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
@@ -7019,25 +7019,25 @@
         <v>111.6181084023166</v>
       </c>
       <c r="K36" t="n">
-        <v>123.4881791623238</v>
+        <v>168.4216696162271</v>
       </c>
       <c r="L36" t="n">
-        <v>1093.992002967972</v>
+        <v>1138.925493421876</v>
       </c>
       <c r="M36" t="n">
-        <v>1112.617474565485</v>
+        <v>1157.550965019388</v>
       </c>
       <c r="N36" t="n">
-        <v>1600.235557966002</v>
+        <v>1176.669397428267</v>
       </c>
       <c r="O36" t="n">
-        <v>1617.725188531179</v>
+        <v>1194.159027993443</v>
       </c>
       <c r="P36" t="n">
-        <v>1631.762158972801</v>
+        <v>1208.195998435065</v>
       </c>
       <c r="Q36" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R36" t="n">
         <v>1762.882278270333</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.5085325195037</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C37" t="n">
-        <v>682.9468210027286</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D37" t="n">
-        <v>517.0688282042513</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E37" t="n">
-        <v>347.3108244549886</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F37" t="n">
-        <v>347.3108244549886</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7824281348302</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H37" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7119,28 +7119,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.550060136378</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="U37" t="n">
-        <v>2079.120489134248</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="V37" t="n">
-        <v>1792.164981004679</v>
+        <v>2115.343983926331</v>
       </c>
       <c r="W37" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X37" t="n">
-        <v>1274.746821924383</v>
+        <v>1597.925824846035</v>
       </c>
       <c r="Y37" t="n">
-        <v>1047.327151238491</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7174,28 +7174,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>992.1982983439295</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M38" t="n">
-        <v>2173.3702022624</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N38" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O38" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P38" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q38" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R38" t="n">
         <v>5107.111724666206</v>
@@ -7210,16 +7210,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>111.6181084023166</v>
       </c>
       <c r="K39" t="n">
-        <v>649.9020472411047</v>
+        <v>123.4881791623238</v>
       </c>
       <c r="L39" t="n">
-        <v>665.8628222356496</v>
+        <v>139.4489541568687</v>
       </c>
       <c r="M39" t="n">
-        <v>684.4882938331621</v>
+        <v>1356.799259846881</v>
       </c>
       <c r="N39" t="n">
-        <v>703.6067262420404</v>
+        <v>1375.917692255759</v>
       </c>
       <c r="O39" t="n">
-        <v>1734.897966625519</v>
+        <v>1393.407322820936</v>
       </c>
       <c r="P39" t="n">
         <v>1748.934937067141</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.5085325195037</v>
+        <v>873.8160132079688</v>
       </c>
       <c r="C40" t="n">
-        <v>682.9468210027286</v>
+        <v>701.2543016911937</v>
       </c>
       <c r="D40" t="n">
-        <v>517.0688282042513</v>
+        <v>535.3763088927165</v>
       </c>
       <c r="E40" t="n">
-        <v>347.3108244549886</v>
+        <v>365.6183051434538</v>
       </c>
       <c r="F40" t="n">
-        <v>170.6037704167448</v>
+        <v>188.91125110521</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7371,13 +7371,13 @@
         <v>1792.164981004679</v>
       </c>
       <c r="W40" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.446057279435</v>
       </c>
       <c r="X40" t="n">
-        <v>1274.746821924383</v>
+        <v>1293.054302612848</v>
       </c>
       <c r="Y40" t="n">
-        <v>1047.327151238491</v>
+        <v>1065.634631926956</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>992.1982983439295</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M41" t="n">
-        <v>2082.005493037262</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N41" t="n">
-        <v>3232.250897834259</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O41" t="n">
-        <v>4235.578837348186</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P41" t="n">
-        <v>5083.64522758474</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q41" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R41" t="n">
         <v>5107.111724666206</v>
@@ -7456,7 +7456,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L42" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N42" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O42" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P42" t="n">
         <v>1091.023220340725</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1178.687535441156</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="C43" t="n">
         <v>1006.125823924381</v>
@@ -7596,25 +7596,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2779.896976828331</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T43" t="n">
-        <v>2680.72906305803</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U43" t="n">
-        <v>2402.2994920559</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V43" t="n">
-        <v>2115.343983926331</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W43" t="n">
-        <v>1843.317579512622</v>
+        <v>1538.729144951482</v>
       </c>
       <c r="X43" t="n">
-        <v>1597.925824846035</v>
+        <v>1293.337390284895</v>
       </c>
       <c r="Y43" t="n">
-        <v>1370.506154160143</v>
+        <v>1065.917719599003</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E44" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F44" t="n">
         <v>791.0944537814162</v>
@@ -7648,28 +7648,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J44" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
-        <v>2067.258264596789</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M44" t="n">
-        <v>3248.430168515259</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N44" t="n">
-        <v>4212.430564404565</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O44" t="n">
-        <v>4235.578837348186</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P44" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q44" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R44" t="n">
         <v>5107.111724666206</v>
@@ -7681,19 +7681,19 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U44" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W44" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533116</v>
       </c>
       <c r="J45" t="n">
-        <v>462.2401065289864</v>
+        <v>111.6181084023166</v>
       </c>
       <c r="K45" t="n">
-        <v>1005.791940332991</v>
+        <v>123.4881791623238</v>
       </c>
       <c r="L45" t="n">
-        <v>1021.752715327536</v>
+        <v>1093.992002967972</v>
       </c>
       <c r="M45" t="n">
-        <v>1040.378186925048</v>
+        <v>1112.617474565485</v>
       </c>
       <c r="N45" t="n">
-        <v>1059.496619333927</v>
+        <v>1131.735906974363</v>
       </c>
       <c r="O45" t="n">
-        <v>1076.986249899104</v>
+        <v>1149.22553753954</v>
       </c>
       <c r="P45" t="n">
-        <v>1091.023220340725</v>
+        <v>1748.934937067141</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1178.687535441156</v>
+        <v>1133.938103521634</v>
       </c>
       <c r="C46" t="n">
-        <v>1006.125823924381</v>
+        <v>961.376392004859</v>
       </c>
       <c r="D46" t="n">
-        <v>840.2478311259033</v>
+        <v>795.4983992063817</v>
       </c>
       <c r="E46" t="n">
-        <v>670.4898273766405</v>
+        <v>625.7403954571189</v>
       </c>
       <c r="F46" t="n">
-        <v>493.7827733383967</v>
+        <v>449.0333414188751</v>
       </c>
       <c r="G46" t="n">
-        <v>328.2543770182384</v>
+        <v>283.5049450987168</v>
       </c>
       <c r="H46" t="n">
-        <v>188.91125110521</v>
+        <v>144.1618191856884</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
@@ -7830,28 +7830,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S46" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T46" t="n">
-        <v>2376.140628496887</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U46" t="n">
-        <v>2097.711057494756</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="V46" t="n">
-        <v>1810.755549365187</v>
+        <v>2070.594552006809</v>
       </c>
       <c r="W46" t="n">
-        <v>1538.729144951478</v>
+        <v>1798.568147593101</v>
       </c>
       <c r="X46" t="n">
-        <v>1538.729144951478</v>
+        <v>1553.176392926513</v>
       </c>
       <c r="Y46" t="n">
-        <v>1311.309474265587</v>
+        <v>1325.756722240621</v>
       </c>
     </row>
   </sheetData>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8300,10 +8300,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8458,16 +8458,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>725.0596242473914</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>203.606304141707</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>655.4086274124619</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>756.6928078575972</v>
+        <v>404.7487802599485</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>609.4136700237824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>395.643617783531</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>404.7487802599486</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>578.0380920593705</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>537.0522859030276</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>939.3094665912004</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>801.7742220584114</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>421.9705603698517</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>537.0522859030276</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>395.643617783531</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,28 +9877,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>61.59677157642295</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>135.9602724823098</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>203.606304141707</v>
       </c>
       <c r="K27" t="n">
-        <v>537.0522859030276</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>501.2479710238147</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>563.3792284893484</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>727.7700115332167</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,7 +10357,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>243.5529260941921</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>517.116556528309</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>63.21272191057471</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>750.4904876091313</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>801.7742220584114</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>45.38736409485182</v>
       </c>
       <c r="L36" t="n">
         <v>964.1848977889938</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>473.2319706986252</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>492.7954426795086</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>531.7311798775564</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>344.9400442470535</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1076.447602005468</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11080,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>517.116556528309</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>537.0522859030276</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,22 +11305,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>948.975731847228</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>801.7742220584114</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>591.5883122080595</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>130.7064558139244</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.12440588158051</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>137.3233373450392</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>94.80173891340274</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>85.90132644576698</v>
@@ -23940,7 +23940,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>215.6412237697651</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.79253764158535</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>149.111118490828</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.0072293945737</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>155.7280000219428</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>76.39707623649933</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50.64107252286408</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8731123569568</v>
+        <v>163.5928555616341</v>
       </c>
       <c r="H31" t="n">
-        <v>137.6694378585754</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>149.1111184908281</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.10590294880707</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>25.89727492342317</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>96.09619179277034</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>18.12440588158057</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>130.706455813921</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.9784406182518</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.60471309561052</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>44.30193760032634</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722915</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722915</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722915</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
         <v>409563.1547552674</v>
       </c>
       <c r="F2" t="n">
-        <v>409563.1547552675</v>
+        <v>409563.1547552674</v>
       </c>
       <c r="G2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552673</v>
       </c>
       <c r="H2" t="n">
         <v>409563.1547552673</v>
@@ -26340,10 +26340,10 @@
         <v>409563.1547552673</v>
       </c>
       <c r="K2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552673</v>
       </c>
       <c r="L2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552673</v>
       </c>
       <c r="M2" t="n">
         <v>409563.1547552674</v>
@@ -26355,7 +26355,7 @@
         <v>409563.1547552674</v>
       </c>
       <c r="P2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552675</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>282266.1702848778</v>
+        <v>282266.1702848779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220799.8335736791</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="C4" t="n">
-        <v>220799.8335736791</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="D4" t="n">
-        <v>220799.8335736791</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="E4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="F4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="G4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="H4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="I4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="J4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="K4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="L4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="M4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="N4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="O4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="P4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="J5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="K5" t="n">
         <v>78380.64252189653</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6901.749455544857</v>
+        <v>-6890.664203103828</v>
       </c>
       <c r="C6" t="n">
-        <v>135289.5512041651</v>
+        <v>135300.636456606</v>
       </c>
       <c r="D6" t="n">
-        <v>135289.551204165</v>
+        <v>135300.6364566061</v>
       </c>
       <c r="E6" t="n">
-        <v>-60947.85018831416</v>
+        <v>-61116.40425920965</v>
       </c>
       <c r="F6" t="n">
-        <v>221318.3200965638</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="G6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="H6" t="n">
-        <v>221318.3200965635</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="I6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="J6" t="n">
-        <v>110303.8547515734</v>
+        <v>110135.300680678</v>
       </c>
       <c r="K6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256681</v>
       </c>
       <c r="L6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256681</v>
       </c>
       <c r="M6" t="n">
-        <v>8876.377415574505</v>
+        <v>8707.823344679071</v>
       </c>
       <c r="N6" t="n">
-        <v>221318.3200965635</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="O6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256682</v>
       </c>
       <c r="P6" t="n">
-        <v>221318.3200965637</v>
+        <v>221149.7660256683</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="K4" t="n">
         <v>1276.777931166552</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367909</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.482073646447</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.482073646447</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.482073646447</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>210.9910998516668</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>399.9667529740389</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.03360576332141</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>67.8842041684461</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>370.3579796189766</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>32.31453370245691</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>88.92225945022446</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>132.442813126131</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27906,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>178.7593439063619</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>72.71868052833514</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28013,13 +28013,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>55.79346696271132</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28061,13 +28061,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>254.6579895701174</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30680,7 +30680,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>3.796617681797508e-12</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>8.119788366582661e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U11" t="n">
         <v>0.01110203209766563</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J12" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K12" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S12" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I13" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J13" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U14" t="n">
         <v>0.01110203209766563</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J15" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K15" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I16" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J16" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U17" t="n">
         <v>0.01110203209766563</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J18" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K18" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S18" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I19" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J19" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U20" t="n">
         <v>0.01110203209766563</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I21" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J21" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K21" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I22" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J22" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U23" t="n">
         <v>0.01110203209766563</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J24" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K24" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S24" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I25" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J25" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U26" t="n">
         <v>0.01110203209766563</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J27" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K27" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S27" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I28" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J28" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U29" t="n">
         <v>0.01110203209766563</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J30" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K30" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S30" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I31" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J31" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U32" t="n">
         <v>0.01110203209766563</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J33" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K33" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S33" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I34" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J34" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,40 +33654,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U35" t="n">
         <v>0.01110203209766563</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I36" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J36" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K36" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S36" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I37" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J37" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U38" t="n">
         <v>0.01110203209766563</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J39" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K39" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S39" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I40" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J40" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U41" t="n">
         <v>0.01110203209766563</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I42" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J42" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K42" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S42" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I43" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J43" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>1.421233577752727</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565682</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936561</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304294</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815463</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961539</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833405</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244451</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480551</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858487</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937363</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319447</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441414</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U44" t="n">
         <v>0.01110203209766563</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0742513856626305</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943525</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I45" t="n">
-        <v>2.55646218180548</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J45" t="n">
-        <v>7.01512762525756</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K45" t="n">
-        <v>11.9899704646538</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
-        <v>18.8136076742551</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017858</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184038</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040343</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527182</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S45" t="n">
-        <v>1.37918692228614</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559535</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067798</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384753</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311175</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I46" t="n">
         <v>1.872023287304434</v>
       </c>
       <c r="J46" t="n">
-        <v>4.40106563040102</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688829</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702752</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468663</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157056</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485289</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018793</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105542</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778634</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703324</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791667</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755324</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35020,10 +35020,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35096,16 +35096,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35178,16 +35178,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L11" t="n">
-        <v>746.9594233755461</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M11" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N11" t="n">
         <v>24.76204177833415</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J12" t="n">
-        <v>334.8518195103205</v>
+        <v>210.6214317669645</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465382</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L12" t="n">
-        <v>671.5306223564467</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425508</v>
@@ -35512,7 +35512,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J14" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M14" t="n">
-        <v>781.0605540272127</v>
+        <v>429.1165264295637</v>
       </c>
       <c r="N14" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O14" t="n">
         <v>1013.462565165582</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>621.4036404884362</v>
+        <v>699.5995866973583</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398476</v>
+        <v>411.7656127275156</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P15" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
         <v>9.478124247040341</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J17" t="n">
-        <v>451.4295881567574</v>
+        <v>416.5271689693142</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>599.9378911875251</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M17" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N17" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
         <v>856.6327174106605</v>
@@ -35977,10 +35977,10 @@
         <v>19.31154788775586</v>
       </c>
       <c r="O18" t="n">
-        <v>554.7185794032061</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q18" t="n">
         <v>555.679072360248</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304294</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N20" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O20" t="n">
-        <v>962.691560473645</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480538</v>
+        <v>821.7302982232168</v>
       </c>
       <c r="Q20" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425508</v>
@@ -36220,7 +36220,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>431.448684616892</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
         <v>122.9664406999614</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0422563676814</v>
+        <v>699.5995866973583</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398465</v>
       </c>
       <c r="M24" t="n">
         <v>18.81360767425508</v>
@@ -36457,7 +36457,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>555.679072360248</v>
+        <v>405.1217420305713</v>
       </c>
       <c r="R24" t="n">
         <v>122.9664406999614</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K26" t="n">
-        <v>79.24952301946587</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N26" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480538</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937184</v>
+        <v>144.677622779247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J27" t="n">
-        <v>334.8518195103205</v>
+        <v>210.6214317669645</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0422563676814</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L27" t="n">
         <v>16.12199494398476</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
-        <v>518.9007224668577</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N29" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>2.556462181805486</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465381</v>
+        <v>575.3691989540022</v>
       </c>
       <c r="L30" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O30" t="n">
-        <v>745.4363050333952</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P30" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
         <v>860.4308241280712</v>
@@ -37077,22 +37077,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N32" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>1013.462565165583</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
-        <v>263.5090022589975</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q32" t="n">
-        <v>567.0051578243374</v>
+        <v>532.1027386368942</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>75.20269237522852</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775581</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017857</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
         <v>555.679072360248</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304294</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>772.3902867372858</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M35" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
-        <v>856.63271741066</v>
+        <v>821.7302982232168</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>7.015127625257563</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465381</v>
+        <v>57.37733455950563</v>
       </c>
       <c r="L36" t="n">
         <v>980.3068927329786</v>
@@ -37396,7 +37396,7 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>492.543518586381</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
         <v>17.66629350017865</v>
@@ -37405,10 +37405,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>122.9664406999614</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M38" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N38" t="n">
-        <v>517.5574844578427</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
@@ -37566,7 +37566,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>7.015127625257563</v>
       </c>
       <c r="K39" t="n">
-        <v>543.7211503422102</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L39" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425508</v>
+        <v>1229.646773424255</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O39" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184039</v>
+        <v>359.1188022688939</v>
       </c>
       <c r="Q39" t="n">
         <v>9.478124247040341</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.815348175083</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O41" t="n">
         <v>1013.462565165582</v>
@@ -37800,10 +37800,10 @@
         <v>856.63271741066</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858513</v>
+        <v>532.1027386368942</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398476</v>
@@ -37870,13 +37870,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q42" t="n">
         <v>555.679072360248</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434285</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
         <v>860.4308241280712</v>
@@ -38025,22 +38025,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M44" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N44" t="n">
-        <v>973.7377736255621</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P44" t="n">
-        <v>856.63271741066</v>
+        <v>821.7302982232168</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J45" t="n">
-        <v>334.8518195103205</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398476</v>
+        <v>980.3068927329786</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38113,13 +38113,13 @@
         <v>17.66629350017865</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184039</v>
+        <v>605.7670702298999</v>
       </c>
       <c r="Q45" t="n">
-        <v>555.679072360248</v>
+        <v>9.478124247040341</v>
       </c>
       <c r="R45" t="n">
-        <v>122.9664406999614</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K46" t="n">
         <v>284.7660952807854</v>
